--- a/python_Proyect/Resultados/Riqueza_Orden_Familia.xlsx
+++ b/python_Proyect/Resultados/Riqueza_Orden_Familia.xlsx
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
